--- a/raw_data/KEEN ONE/Byrnes/2015/NE Appledore 2015/NEAppledore_siteinfo_2015.xlsx
+++ b/raw_data/KEEN ONE/Byrnes/2015/NE Appledore 2015/NEAppledore_siteinfo_2015.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="240" windowWidth="22100" windowHeight="11120" tabRatio="500"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
   <si>
     <t>Team</t>
   </si>
@@ -79,6 +79,15 @@
   </si>
   <si>
     <t>NORWEGIAN_COVE</t>
+  </si>
+  <si>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>Year</t>
   </si>
 </sst>
 </file>
@@ -134,8 +143,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="51">
+  <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -200,7 +211,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="51">
+  <cellStyles count="53">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -226,6 +237,7 @@
     <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -251,6 +263,7 @@
     <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -580,10 +593,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3:I3"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -592,19 +605,20 @@
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="23.83203125" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -617,38 +631,47 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:17">
       <c r="B2" t="s">
         <v>14</v>
       </c>
@@ -658,35 +681,44 @@
       <c r="D2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="3">
+        <v>8</v>
+      </c>
+      <c r="F2" s="3">
+        <v>12</v>
+      </c>
+      <c r="G2" s="3">
+        <v>2015</v>
+      </c>
+      <c r="H2" s="4">
         <v>42228</v>
       </c>
-      <c r="F2">
+      <c r="I2">
         <v>42.992189945653003</v>
       </c>
-      <c r="G2">
+      <c r="J2">
         <v>-70.611079987138496</v>
       </c>
-      <c r="H2">
+      <c r="K2">
         <v>42.992456573992897</v>
       </c>
-      <c r="I2">
+      <c r="L2">
         <v>-70.611278219148502</v>
       </c>
-      <c r="J2" s="5">
+      <c r="M2" s="5">
         <v>8.6999999999999993</v>
       </c>
-      <c r="K2" s="5">
+      <c r="N2" s="5">
         <v>8</v>
       </c>
-      <c r="L2" s="5">
+      <c r="O2" s="5">
         <v>7</v>
       </c>
-      <c r="M2" s="6">
+      <c r="P2" s="6">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:17">
       <c r="B3" t="s">
         <v>14</v>
       </c>
@@ -696,35 +728,44 @@
       <c r="D3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="3">
+        <v>8</v>
+      </c>
+      <c r="F3" s="3">
+        <v>13</v>
+      </c>
+      <c r="G3" s="3">
+        <v>2015</v>
+      </c>
+      <c r="H3" s="4">
         <v>42229</v>
       </c>
-      <c r="F3">
+      <c r="I3">
         <v>42.989809988066497</v>
       </c>
-      <c r="G3">
+      <c r="J3">
         <v>-70.610949983820305</v>
       </c>
-      <c r="H3">
+      <c r="K3">
         <v>42.989705968648103</v>
       </c>
-      <c r="I3">
+      <c r="L3">
         <v>-70.610550921410294</v>
       </c>
-      <c r="J3" s="5">
+      <c r="M3" s="5">
         <v>7.7</v>
       </c>
-      <c r="K3" s="5">
+      <c r="N3" s="5">
         <v>8.6999999999999993</v>
       </c>
-      <c r="L3" s="5">
+      <c r="O3" s="5">
         <v>8</v>
       </c>
-      <c r="M3" s="5">
+      <c r="P3" s="5">
         <v>12.5</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:17">
       <c r="B4" t="s">
         <v>14</v>
       </c>
@@ -734,35 +775,44 @@
       <c r="D4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
+        <v>8</v>
+      </c>
+      <c r="F4" s="3">
+        <v>13</v>
+      </c>
+      <c r="G4" s="3">
+        <v>2015</v>
+      </c>
+      <c r="H4" s="4">
         <v>42229</v>
       </c>
-      <c r="F4">
+      <c r="I4">
         <v>42.992715407162898</v>
       </c>
-      <c r="G4">
+      <c r="J4">
         <v>-70.613481989130307</v>
       </c>
-      <c r="H4">
+      <c r="K4">
         <v>42.992643238976598</v>
       </c>
-      <c r="I4">
+      <c r="L4">
         <v>-70.613080998882594</v>
       </c>
-      <c r="J4">
+      <c r="M4">
         <v>8.5</v>
       </c>
-      <c r="K4">
+      <c r="N4">
         <v>8</v>
       </c>
-      <c r="L4">
+      <c r="O4">
         <v>7</v>
       </c>
-      <c r="M4">
+      <c r="P4">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:17">
       <c r="A5" s="2"/>
       <c r="B5" t="s">
         <v>14</v>
@@ -773,28 +823,37 @@
       <c r="D5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
+        <v>8</v>
+      </c>
+      <c r="F5" s="3">
+        <v>12</v>
+      </c>
+      <c r="G5" s="3">
+        <v>2015</v>
+      </c>
+      <c r="H5" s="4">
         <v>42228</v>
       </c>
-      <c r="F5">
+      <c r="I5">
         <v>42.990369983017402</v>
       </c>
-      <c r="G5">
+      <c r="J5">
         <v>-70.610879994928794</v>
       </c>
-      <c r="H5">
+      <c r="K5">
         <v>42.9908521100878</v>
       </c>
-      <c r="I5">
+      <c r="L5">
         <v>-70.610993569716797</v>
       </c>
-      <c r="J5">
+      <c r="M5">
         <v>10.199999999999999</v>
       </c>
-      <c r="K5">
+      <c r="N5">
         <v>8</v>
       </c>
-      <c r="L5">
+      <c r="O5">
         <v>4</v>
       </c>
     </row>
